--- a/datasets/dataset.xlsx
+++ b/datasets/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\PycharmProjects\TelegramBot\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="G650" sqref="G650"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datasets/dataset.xlsx
+++ b/datasets/dataset.xlsx
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="I573" sqref="I573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B573" t="s">
         <v>154</v>
